--- a/src/main/resources/api.xlsx
+++ b/src/main/resources/api.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jarvan\Desktop\svn\trunk\apiFrame\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">request_data!$A$1:$E$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -86,13 +91,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>{"mobilephone":"","pwd":"","regname":"柠檬班"}</t>
-  </si>
-  <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"135","pwd":"123456","regname":"柠檬班"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
@@ -203,15 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"123456","regname":"柠檬班"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"","regname":"柠檬班"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"123","regname":"柠檬班"}</t>
-  </si>
-  <si>
     <t>{"mobilephone":"${mobilephone}","pwd":"123456"}</t>
   </si>
   <si>
@@ -333,14 +323,6 @@
   </si>
   <si>
     <t>[{"no":"1","sql":"select count(1) as totalNum from repayment where InvestId=1","expectedResult":[{"totalNum":"3"}]},{"no":"2","sql":"select Terms,UnfinishedInterest,UnfinishedPrincipal,`Status` from repayment where InvestId=1","expectedResult":[{"Terms":"1","UnfinishedInterest":"1.00","UnfinishedPrincipal":"0.00","Status":"0"},{"Terms":"2","UnfinishedInterest":"1.00","UnfinishedPrincipal":"0.00","Status":"0"},{"Terms":"3","UnfinishedInterest":"1.00","UnfinishedPrincipal":"100.00","Status":"0"}]}]</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobilephone}","pwd":"123456","regname":"__getRegName(aa,bb,cc)"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
@@ -434,12 +416,99 @@
   <si>
     <t>http://120.78.128.25:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
   </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","pwd":"","regname":"DOMO云"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"mobilephone":"${mobilephone}","pwd":"123456","regname":"DOMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"mobilephone":"","pwd":"","regname":"DOMOyun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"mobilephone":"135","pwd":"123456","regname":"DOMOyun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"mobilephone":"${mobilephone}","pwd":"123","regname":"DOMOyun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","pwd":"123456","regname":"__getRegName(aa,bb,cc)"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +536,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -489,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +623,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -557,12 +640,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -604,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,48 +936,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="73.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -899,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -916,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -930,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -944,10 +1030,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -958,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -972,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -986,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1000,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1014,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1028,10 +1114,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1042,10 +1128,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1056,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1076,58 +1162,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="50" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" style="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.77734375" style="1"/>
-    <col min="10" max="10" width="23.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="31.77734375" style="1"/>
+    <col min="6" max="6" width="34.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" style="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="1"/>
+    <col min="10" max="10" width="23.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -1135,25 +1221,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>95</v>
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1161,23 +1247,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="14"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1185,13 +1271,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="15"/>
@@ -1199,7 +1285,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1207,13 +1293,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="15"/>
@@ -1221,7 +1307,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1229,13 +1315,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
@@ -1243,7 +1329,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1251,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="15"/>
@@ -1265,21 +1351,21 @@
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="13"/>
@@ -1287,21 +1373,21 @@
       <c r="I8" s="12"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="15"/>
@@ -1309,21 +1395,21 @@
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="15"/>
@@ -1331,21 +1417,21 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="16"/>
@@ -1353,7 +1439,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1361,13 +1447,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="16"/>
@@ -1375,7 +1461,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1383,13 +1469,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="15"/>
@@ -1397,7 +1483,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1405,13 +1491,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="15"/>
@@ -1419,7 +1505,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1427,25 +1513,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1453,13 +1539,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="15"/>
@@ -1467,7 +1553,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1475,13 +1561,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="15"/>
@@ -1489,7 +1575,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1497,13 +1583,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="15"/>
@@ -1511,7 +1597,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1519,13 +1605,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="15"/>
@@ -1533,7 +1619,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1541,13 +1627,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="15"/>
@@ -1555,7 +1641,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1563,13 +1649,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="15"/>
@@ -1577,7 +1663,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1585,13 +1671,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="15"/>
@@ -1599,7 +1685,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1607,13 +1693,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="15"/>
@@ -1621,7 +1707,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1629,23 +1715,23 @@
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="15"/>
       <c r="H24" s="10"/>
       <c r="I24" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="162" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1653,23 +1739,23 @@
         <v>6</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="15"/>
       <c r="H25" s="10"/>
       <c r="I25" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1677,23 +1763,23 @@
         <v>6</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="15"/>
       <c r="H26" s="10"/>
       <c r="I26" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1701,23 +1787,23 @@
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="15"/>
       <c r="H27" s="10"/>
       <c r="I27" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1725,23 +1811,23 @@
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="15"/>
       <c r="H28" s="10"/>
       <c r="I28" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1749,21 +1835,21 @@
         <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J29" s="10"/>
     </row>
